--- a/secuencias/sti/SEASPAN BEAUTY.xlsx
+++ b/secuencias/sti/SEASPAN BEAUTY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Sigla</t>
   </si>
@@ -52,24 +52,15 @@
     <t>ETA</t>
   </si>
   <si>
+    <t>TEMU</t>
+  </si>
+  <si>
+    <t>NYKU</t>
+  </si>
+  <si>
     <t>MEDU</t>
   </si>
   <si>
-    <t>TEMU</t>
-  </si>
-  <si>
-    <t>NYKU</t>
-  </si>
-  <si>
-    <t>HLXU</t>
-  </si>
-  <si>
-    <t>FANU</t>
-  </si>
-  <si>
-    <t>HLBU</t>
-  </si>
-  <si>
     <t>A36</t>
   </si>
   <si>
@@ -82,28 +73,13 @@
     <t>NO</t>
   </si>
   <si>
+    <t xml:space="preserve">06/11/2023 06:04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/11/2023 00:13 </t>
+  </si>
+  <si>
     <t xml:space="preserve">04/11/2023 08:55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/11/2023 06:04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/11/2023 00:13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/11/2023 01:27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/11/2023 05:11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/11/2023 14:41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/11/2023 09:52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/11/2023 20:25 </t>
   </si>
   <si>
     <t>SEASPAN BEAUTY</t>
@@ -467,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +492,31 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>853285</v>
+        <v>736280</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -548,31 +524,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>736280</v>
+        <v>476649</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -580,191 +556,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>476649</v>
+        <v>853285</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>835401</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>760642</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>325099</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>997770</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>392710</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
